--- a/task.xlsx
+++ b/task.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitBook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="12" windowWidth="19068" windowHeight="8676"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19065" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="111" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>Oleg</t>
   </si>
@@ -1324,13 +1319,16 @@
   </si>
   <si>
     <t>Alex</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1831,24 +1829,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1930,7 +1928,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1962,10 +1960,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1997,7 +1994,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2173,16 +2169,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DO7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2498,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -2861,7 +2857,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:119">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -3184,7 +3180,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:119">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -3493,6 +3489,11 @@
       </c>
       <c r="CY4" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:119">
+      <c r="A7" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
